--- a/conditions.xlsx
+++ b/conditions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gau20/Desktop/stage programmation/Alarme sound HDG/alarme sound R&amp;O 3back/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{904F1180-3C17-FC4A-97A8-3B8EE23E1EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D7D287-4C68-164D-AAE3-E7E597810FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1940" yWindow="1380" windowWidth="14400" windowHeight="8840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14460" yWindow="500" windowWidth="14400" windowHeight="8840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="11">
   <si>
     <t>ordre</t>
   </si>
@@ -385,10 +385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="A2" sqref="A2:F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -476,16 +476,16 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>0.05</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -493,20 +493,23 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>3</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
       </c>
       <c r="F6" t="s">
         <v>8</v>
       </c>
       <c r="I6">
         <f>SUM(C:C)</f>
-        <v>120</v>
+        <v>123.39999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -514,10 +517,10 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>0.05</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -548,19 +551,16 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9">
         <v>3</v>
       </c>
       <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -585,12 +585,15 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>0.05</v>
       </c>
       <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
         <v>0</v>
       </c>
       <c r="F11" t="s">
@@ -602,13 +605,16 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C12">
         <v>3</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
       </c>
       <c r="F12" t="s">
         <v>8</v>
@@ -619,10 +625,10 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>0.05</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -636,7 +642,7 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C14">
         <v>3</v>
@@ -645,7 +651,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -653,19 +659,16 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C15">
         <v>3</v>
       </c>
       <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -690,19 +693,16 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C17">
         <v>3</v>
       </c>
       <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -747,7 +747,7 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C20">
         <v>3</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -781,12 +781,15 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C22">
-        <v>3</v>
+        <v>0.05</v>
       </c>
       <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
         <v>0</v>
       </c>
       <c r="F22" t="s">
@@ -798,16 +801,19 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C23">
         <v>3</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -815,7 +821,7 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C24">
         <v>3</v>
@@ -824,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -832,16 +838,19 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C25">
         <v>3</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -866,7 +875,7 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C27">
         <v>3</v>
@@ -875,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -883,19 +892,16 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C28">
         <v>3</v>
       </c>
       <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -903,7 +909,7 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C29">
         <v>3</v>
@@ -912,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -920,7 +926,7 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C30">
         <v>3</v>
@@ -929,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -954,7 +960,7 @@
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C32">
         <v>3</v>
@@ -963,7 +969,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -971,19 +977,16 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C33">
         <v>3</v>
       </c>
       <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -991,16 +994,19 @@
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C34">
         <v>3</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
       </c>
       <c r="F34" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -1008,10 +1014,10 @@
         <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C35">
-        <v>3</v>
+        <v>0.05</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -1042,7 +1048,7 @@
         <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C37">
         <v>3</v>
@@ -1051,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -1093,12 +1099,15 @@
         <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C40">
-        <v>3</v>
+        <v>0.05</v>
       </c>
       <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
         <v>0</v>
       </c>
       <c r="F40" t="s">
@@ -1133,12 +1142,168 @@
         <v>5</v>
       </c>
       <c r="C42">
+        <v>3</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="F42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43">
+        <v>3</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="F43" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44">
+        <v>3</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="F44" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45">
+        <v>0.05</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="F45" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="F46" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47">
+        <v>3</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="F47" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48">
+        <v>3</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="F48" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49">
+        <v>3</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="F49" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50">
+        <v>3</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>1</v>
+      </c>
+      <c r="B51" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51">
         <v>2.9</v>
       </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="F42" t="s">
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="F51" t="s">
         <v>9</v>
       </c>
     </row>

--- a/conditions.xlsx
+++ b/conditions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gau20/Desktop/stage programmation/Alarme sound HDG/alarme sound R&amp;O 3back/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D7D287-4C68-164D-AAE3-E7E597810FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BBD552F-787C-B844-A759-1E3CCF48CD34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14460" yWindow="500" windowWidth="14400" windowHeight="8840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="8840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -387,8 +387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F51"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="182" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -509,7 +509,7 @@
       </c>
       <c r="I6">
         <f>SUM(C:C)</f>
-        <v>123.39999999999999</v>
+        <v>120.44999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -750,13 +750,13 @@
         <v>10</v>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>0.05</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
